--- a/QC-acceptance-criteria/QC-acceptance_sheet.xlsx
+++ b/QC-acceptance-criteria/QC-acceptance_sheet.xlsx
@@ -627,7 +627,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="T9" activeCellId="0" sqref="T9"/>
+      <selection pane="bottomRight" activeCell="N23" activeCellId="0" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -938,7 +938,9 @@
       <c r="L4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="6"/>
+      <c r="M4" s="20" t="n">
+        <v>0</v>
+      </c>
       <c r="N4" s="6"/>
       <c r="O4" s="20" t="n">
         <v>0.9851</v>
@@ -979,7 +981,9 @@
       <c r="L5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="M5" s="6"/>
+      <c r="M5" s="20" t="n">
+        <v>0</v>
+      </c>
       <c r="N5" s="6"/>
       <c r="O5" s="20" t="n">
         <v>0.9851</v>
@@ -1020,7 +1024,9 @@
       <c r="L6" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="M6" s="6"/>
+      <c r="M6" s="20" t="n">
+        <v>0</v>
+      </c>
       <c r="N6" s="6"/>
       <c r="O6" s="20" t="n">
         <v>0.9788</v>
@@ -1061,7 +1067,9 @@
       <c r="L7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="M7" s="6"/>
+      <c r="M7" s="20" t="n">
+        <v>0</v>
+      </c>
       <c r="N7" s="6"/>
       <c r="O7" s="20" t="n">
         <v>0.9849</v>
@@ -1102,7 +1110,9 @@
       <c r="L8" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="M8" s="6"/>
+      <c r="M8" s="20" t="n">
+        <v>0</v>
+      </c>
       <c r="N8" s="6"/>
       <c r="O8" s="20" t="n">
         <v>0.9851</v>
@@ -1143,7 +1153,9 @@
       <c r="L9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="M9" s="6"/>
+      <c r="M9" s="20" t="n">
+        <v>0</v>
+      </c>
       <c r="N9" s="6"/>
       <c r="O9" s="20" t="n">
         <v>0.916</v>
@@ -1184,7 +1196,9 @@
       <c r="L10" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="M10" s="6"/>
+      <c r="M10" s="20" t="n">
+        <v>0</v>
+      </c>
       <c r="N10" s="6"/>
       <c r="O10" s="20" t="n">
         <v>0.9851</v>
@@ -1225,7 +1239,9 @@
       <c r="L11" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="M11" s="6"/>
+      <c r="M11" s="20" t="n">
+        <v>0</v>
+      </c>
       <c r="N11" s="6"/>
       <c r="O11" s="20" t="n">
         <v>0.9792</v>
@@ -1266,7 +1282,9 @@
       <c r="L12" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="M12" s="6"/>
+      <c r="M12" s="20" t="n">
+        <v>0</v>
+      </c>
       <c r="N12" s="6"/>
       <c r="O12" s="20" t="n">
         <v>0.9903</v>
@@ -1307,7 +1325,9 @@
       <c r="L13" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="M13" s="6"/>
+      <c r="M13" s="20" t="n">
+        <v>0</v>
+      </c>
       <c r="N13" s="6"/>
       <c r="O13" s="20" t="n">
         <v>0.9903</v>
@@ -1348,7 +1368,9 @@
       <c r="L14" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="M14" s="6"/>
+      <c r="M14" s="20" t="n">
+        <v>0</v>
+      </c>
       <c r="N14" s="6"/>
       <c r="O14" s="20" t="n">
         <v>0.9583</v>
@@ -1389,7 +1411,9 @@
       <c r="L15" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="M15" s="6"/>
+      <c r="M15" s="20" t="n">
+        <v>0</v>
+      </c>
       <c r="N15" s="6"/>
       <c r="O15" s="20" t="n">
         <v>0.9901</v>
@@ -1430,7 +1454,9 @@
       <c r="L16" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="M16" s="6"/>
+      <c r="M16" s="20" t="n">
+        <v>0</v>
+      </c>
       <c r="N16" s="6"/>
       <c r="O16" s="20" t="n">
         <v>0.9903</v>
@@ -1471,7 +1497,9 @@
       <c r="L17" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="M17" s="6"/>
+      <c r="M17" s="20" t="n">
+        <v>0</v>
+      </c>
       <c r="N17" s="6"/>
       <c r="O17" s="20" t="n">
         <v>0.9882</v>
@@ -1512,7 +1540,9 @@
       <c r="L18" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="M18" s="6"/>
+      <c r="M18" s="20" t="n">
+        <v>0</v>
+      </c>
       <c r="N18" s="6"/>
       <c r="O18" s="20" t="n">
         <v>0.9362</v>
@@ -1553,7 +1583,9 @@
       <c r="L19" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="M19" s="6"/>
+      <c r="M19" s="20" t="n">
+        <v>0</v>
+      </c>
       <c r="N19" s="6"/>
       <c r="O19" s="20" t="n">
         <v>0.9814</v>
@@ -1594,7 +1626,9 @@
       <c r="L20" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="M20" s="6"/>
+      <c r="M20" s="20" t="n">
+        <v>0</v>
+      </c>
       <c r="N20" s="6"/>
       <c r="O20" s="20" t="n">
         <v>0.9882</v>
@@ -1635,7 +1669,9 @@
       <c r="L21" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="M21" s="6"/>
+      <c r="M21" s="20" t="n">
+        <v>0</v>
+      </c>
       <c r="N21" s="6"/>
       <c r="O21" s="20" t="n">
         <v>0.9882</v>
@@ -1676,7 +1712,9 @@
       <c r="L22" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="M22" s="6"/>
+      <c r="M22" s="20" t="n">
+        <v>0</v>
+      </c>
       <c r="N22" s="6"/>
       <c r="O22" s="20" t="n">
         <v>0.9882</v>
@@ -1717,7 +1755,9 @@
       <c r="L23" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="M23" s="6"/>
+      <c r="M23" s="20" t="n">
+        <v>0</v>
+      </c>
       <c r="N23" s="6"/>
       <c r="O23" s="20" t="n">
         <v>0.9903</v>
@@ -1758,7 +1798,9 @@
       <c r="L24" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="M24" s="6"/>
+      <c r="M24" s="20" t="n">
+        <v>0</v>
+      </c>
       <c r="N24" s="6"/>
       <c r="O24" s="20" t="n">
         <v>0.9882</v>
@@ -1799,7 +1841,9 @@
       <c r="L25" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="M25" s="6"/>
+      <c r="M25" s="20" t="n">
+        <v>0</v>
+      </c>
       <c r="N25" s="6"/>
       <c r="O25" s="20" t="n">
         <v>0.9814</v>
@@ -1840,7 +1884,9 @@
       <c r="L26" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="M26" s="6"/>
+      <c r="M26" s="20" t="n">
+        <v>0</v>
+      </c>
       <c r="N26" s="6"/>
       <c r="O26" s="20" t="n">
         <v>0.9882</v>
@@ -1881,7 +1927,9 @@
       <c r="L27" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="M27" s="6"/>
+      <c r="M27" s="20" t="n">
+        <v>0</v>
+      </c>
       <c r="N27" s="6"/>
       <c r="O27" s="20" t="n">
         <v>0.9882</v>
